--- a/practices_and_issues.xlsx
+++ b/practices_and_issues.xlsx
@@ -8,15 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teyamagu/program/test_automation_card_game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C072107-EDF7-094F-8643-CB65851D7C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A88EE5-15BF-F448-8A42-BC3C36D6132D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プラクティス一覧" sheetId="2" r:id="rId1"/>
     <sheet name="課題_and_対応プラクティス" sheetId="3" r:id="rId2"/>
+    <sheet name="card出力" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">card出力!$B$3:$M$245</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -502,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -539,6 +556,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -554,6 +574,3291 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>797586</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAFC0EB2-95BC-BAF6-FDBE-5C8A41E53F46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="190500"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>149886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{192BC9A3-218A-BE46-AB3D-7ADCF61C6BEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="3340100"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101601</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12701</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>797586</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729D900A-0BC3-214B-9CE6-35FA05B92230}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2578101" y="25400"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101601</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12701</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>149886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{177949B7-E659-B74A-A359-B703D0F351A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2578101" y="3086100"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12701</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>797586</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A9E816-496A-EF4C-A213-9E61BF21EBA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029201" y="25400"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12701</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>149886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73B4BEBF-EF88-3E4B-AD26-4E960C70A965}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029201" y="3086100"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>797586</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{928C633B-4CE6-2F48-B6D6-2FBB459F0A3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7493001" y="25400"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>149886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{956E62DD-7050-A147-8B67-6FC9E54F15C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7493001" y="3086100"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>15266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>58632</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>137186</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEDBA101-0645-9748-80F0-8F8103037889}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="7533666"/>
+          <a:ext cx="2331932" cy="3017520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>104166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>58632</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>162586</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54CDA88F-90D7-B748-9974-96664B0281A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="10848366"/>
+          <a:ext cx="2331932" cy="3017520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>15266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7832</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>137186</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F399AD94-15D3-2949-A9ED-E21DD876A1FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2451100" y="7863866"/>
+          <a:ext cx="2331932" cy="3017520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>104166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7832</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>162586</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76E878E5-5482-314D-837A-37578B609512}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2451100" y="11673866"/>
+          <a:ext cx="2331932" cy="3017520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>15266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7832</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>137186</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29088B09-81A5-0742-9E4C-B9721CBCE609}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838700" y="7863866"/>
+          <a:ext cx="2331932" cy="3017520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>104166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7832</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>162586</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3BAA6AA-2176-8944-BC55-2D9675E5092E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838700" y="11673866"/>
+          <a:ext cx="2331932" cy="3017520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>2566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>223732</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>124486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="図 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8688FAB0-0C62-7849-8A63-BF8A8B547624}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7264400" y="7851166"/>
+          <a:ext cx="2331932" cy="3017520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>91466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>223732</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>149886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="図 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E66C3C4-DF11-DB42-9D30-A426E68C6B4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7264400" y="11661166"/>
+          <a:ext cx="2331932" cy="3017520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>15266</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2331932" cy="3017520"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="図 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F4ADE41-CD7F-3C4A-9132-66762B0C3808}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="14378966"/>
+          <a:ext cx="2331932" cy="3017520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>104166</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2331932" cy="3017520"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="図 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC34ED35-40DD-F64D-8D4A-1939C12736B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="17693666"/>
+          <a:ext cx="2331932" cy="3017520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>15266</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2331932" cy="3017520"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="図 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54570D09-2CC1-C640-B410-3F0F12F7FA7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2451100" y="7533666"/>
+          <a:ext cx="2331932" cy="3017520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>104166</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2331932" cy="3017520"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="図 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{402869DF-5298-2044-BA7F-59B0907B2BDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2451100" y="10848366"/>
+          <a:ext cx="2331932" cy="3017520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>15266</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2331932" cy="3017520"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="図 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58BA6473-5904-5E49-8C4E-37CCB825CEB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838700" y="7533666"/>
+          <a:ext cx="2331932" cy="3017520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>104166</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2331932" cy="3017520"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="図 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F248D611-88DE-9D43-A2C4-5FDA60D7F03C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838700" y="10848366"/>
+          <a:ext cx="2331932" cy="3017520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>2566</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2331932" cy="3017520"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="図 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{256D12DB-956A-E74C-AA07-305EAD247E4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7264400" y="7520966"/>
+          <a:ext cx="2331932" cy="3017520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>91466</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2331932" cy="3017520"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="図 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B4E1976-6E82-CB4E-BA77-252AF6E193AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7264400" y="10835666"/>
+          <a:ext cx="2331932" cy="3017520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>15266</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2331932" cy="3017520"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="図 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AC4EE35-89B8-0E44-91D7-E0BBF746F718}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="21224266"/>
+          <a:ext cx="2331932" cy="3017520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>104166</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2331932" cy="3017520"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="図 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E40E1A2-BBFE-FC4D-908D-ABDAEEF0641B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="24538966"/>
+          <a:ext cx="2331932" cy="3017520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>15266</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2331932" cy="3017520"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="図 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D3A42C3-3D1A-3444-A6F0-BDC867632DF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2451100" y="14378966"/>
+          <a:ext cx="2331932" cy="3017520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>104166</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2331932" cy="3017520"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="図 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81695868-D9B2-4543-B421-7D84F949AD83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2451100" y="17693666"/>
+          <a:ext cx="2331932" cy="3017520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>15266</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2331932" cy="3017520"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="図 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C187235E-AC8E-FF44-B8D2-DAA7124B2FCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838700" y="14378966"/>
+          <a:ext cx="2331932" cy="3017520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>104166</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2331932" cy="3017520"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="図 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44FF1546-53C3-2248-A75C-F8E3FDEA4773}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838700" y="17693666"/>
+          <a:ext cx="2331932" cy="3017520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>2566</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2331932" cy="3017520"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="図 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC470B0-6E5F-A648-AB85-B4D6AE827235}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7264400" y="14366266"/>
+          <a:ext cx="2331932" cy="3017520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>91466</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2331932" cy="3017520"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="図 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25B9EC2D-9AB4-D043-A00D-1CE4DF323880}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7264400" y="17680966"/>
+          <a:ext cx="2331932" cy="3017520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="図 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B501BAE8-13D6-2043-B292-76ACCD00B44B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="279400" y="520700"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="図 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B206E597-8353-324E-9688-7A4634FC91DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="279400" y="3670300"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101601</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="図 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E54F0936-F337-B64C-8B24-DF042986DC49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2654301" y="520700"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101601</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="図 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BC4EFDD-57A9-004C-BD4D-B71D52F2331D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2654301" y="3670300"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="図 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79EBEED9-74EC-FC4C-BC9D-837022004D89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5041901" y="520700"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="図 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C2F30FC-3382-7F48-873D-FD161968C90E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5041901" y="3670300"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="図 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01D88E5F-BD50-3F4F-8D41-C8E5BA9785F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7416801" y="520700"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="図 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8F67D84-F8B6-0C40-BC4F-E04960F094CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7416801" y="3670300"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="図 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{392797B6-989C-AD44-BA04-E7A178801321}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="279400" y="7543800"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="図 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBB33841-C7A1-DC40-A3DF-4CA17DEFFA37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="279400" y="10693400"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101601</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="図 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8C374B1-E3D4-AB40-BEFD-31BDA68C6E02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2654301" y="7543800"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101601</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="図 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B7F4FB-2C5D-5148-8E28-87041770C988}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2654301" y="10693400"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="図 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6032C83-E073-9641-9E36-3997C133D2AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5041901" y="7543800"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="図 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E354DC5-8B0E-2948-A1AC-75278FC60E63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5041901" y="10693400"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="図 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D88F146-E2F2-504A-91B4-C87788DB8632}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7416801" y="7543800"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="図 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C362C5C-4E70-8F42-8C99-FBECC81F24CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7416801" y="10693400"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="図 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B78B6FCA-37D7-594A-8991-9EE5D05C48F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="279400" y="14566900"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="図 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F295DD3F-2DC1-454B-8912-36C11538D00A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="279400" y="17716500"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101601</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="図 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA623B6-853A-6443-9F03-4B14DD8E752C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2654301" y="14566900"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101601</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="図 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{787F3985-7792-1C4F-88DE-FF478938C63B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2654301" y="17716500"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="図 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C51FF86B-FB0D-EE44-B29D-55685CB0DFAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5041901" y="14566900"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="図 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D2B30C1-7B64-1B40-9810-314F95D392E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5041901" y="17716500"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="図 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EAEA815-F767-C842-B6C2-D5E3DDB1D0F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7416801" y="14566900"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="図 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{010F4A24-5A20-4540-BB79-AB4DFD5BF715}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7416801" y="17716500"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="図 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CCD538A-B473-B14F-8B0C-0A1C6A62CF6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="279400" y="21590000"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="図 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14723B06-4D4C-9441-AC3B-3AE7CE7AAD36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="279400" y="24739600"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101601</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="図 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C254AB7C-E149-7E46-8AD3-80360CF93028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2654301" y="21590000"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101601</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="図 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E809F9B3-F873-E046-BE82-DB0DEFA964E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2654301" y="24739600"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="図 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B49C30F-4A72-DC49-9C12-B5E4350E1BF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5041901" y="21590000"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="図 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A42DB5E-545D-474E-93E0-5DBDACA69036}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5041901" y="24739600"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="図 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07929018-BBE2-7E44-ACB8-80383A57F348}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7416801" y="21590000"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="3007386"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="図 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B164E0-ED79-6745-911E-59D3D64DD5E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7416801" y="24739600"/>
+          <a:ext cx="2324100" cy="3007386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -759,7 +4064,7 @@
   </sheetPr>
   <dimension ref="B2:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1153,6 +4458,7 @@
   </sheetData>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -22515,5 +25821,338 @@
   </sheetData>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E639A5-4D82-664F-8912-C24EEB299D84}">
+  <dimension ref="C12:L239"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B224" workbookViewId="0">
+      <selection activeCell="O136" sqref="O136"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="3.1640625" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+    <col min="4" max="4" width="2.33203125" customWidth="1"/>
+    <col min="5" max="5" width="3.83203125" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1"/>
+    <col min="7" max="7" width="3" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24.83203125" customWidth="1"/>
+    <col min="10" max="11" width="3.1640625" customWidth="1"/>
+    <col min="12" max="12" width="25.1640625" customWidth="1"/>
+    <col min="13" max="13" width="3.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="3:12" s="16" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="16" t="str">
+        <f>プラクティス一覧!B3</f>
+        <v>自動化により何を狙っているか？を明確にする</v>
+      </c>
+      <c r="F12" s="16" t="str">
+        <f>プラクティス一覧!B4</f>
+        <v>自動テストやるところ、やらなくてもいいところを明確にする</v>
+      </c>
+      <c r="I12" s="16" t="str">
+        <f>プラクティス一覧!B5</f>
+        <v>自動テストの有効性を示す</v>
+      </c>
+      <c r="L12" s="16" t="str">
+        <f>プラクティス一覧!B6</f>
+        <v>テストの概念があるチームから自動テスト導入を進める</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" ht="65" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="3:12" ht="19" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="3:12" s="16" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="16" t="str">
+        <f>プラクティス一覧!B7</f>
+        <v>自動テストをやり過ぎない</v>
+      </c>
+      <c r="F22" s="16" t="str">
+        <f>プラクティス一覧!B8</f>
+        <v>自分達のテストピラミッドを作る</v>
+      </c>
+      <c r="I22" s="16" t="str">
+        <f>プラクティス一覧!B9</f>
+        <v>外部協力者による一気に自動テストを増やす。増やした瞬間の自動テストの効果がすごく高まる。ただし、その後のメンテナンスが辛くなる点に注意する</v>
+      </c>
+      <c r="L22" s="16" t="str">
+        <f>プラクティス一覧!B10</f>
+        <v>ちょっとずつ自動テストを増やしていく</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" s="16" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="16" t="str">
+        <f>プラクティス一覧!B11</f>
+        <v>今の自動テストの課題を周知する</v>
+      </c>
+      <c r="F41" s="16" t="str">
+        <f>プラクティス一覧!B12</f>
+        <v>自動テストを増やすことを開発組織の目標に入れ込む</v>
+      </c>
+      <c r="I41" s="16" t="str">
+        <f>プラクティス一覧!B13</f>
+        <v>自動テストを増やすことを開発組織の予算計画に入れ込む</v>
+      </c>
+      <c r="L41" s="16" t="str">
+        <f>プラクティス一覧!B14</f>
+        <v>外部からテスト自動化の専門家を呼んでくる</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" ht="65" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" spans="3:12" ht="19" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" spans="3:12" s="16" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C51" s="16" t="str">
+        <f>プラクティス一覧!B15</f>
+        <v>イネーブルメント(開発チームに一員として参加する)</v>
+      </c>
+      <c r="F51" s="16" t="str">
+        <f>プラクティス一覧!B16</f>
+        <v>テストの自動化優先順位を状況に合わせて変更する</v>
+      </c>
+      <c r="I51" s="16" t="str">
+        <f>プラクティス一覧!B17</f>
+        <v>自動化するテストの全体像を示す（=思いついたところからテスト自動化しない）</v>
+      </c>
+      <c r="L51" s="16" t="str">
+        <f>プラクティス一覧!B18</f>
+        <v>優先順位をつけてテストの自動化をおこなうことで、早い時期からの効果の最大化を狙う</v>
+      </c>
+    </row>
+    <row r="70" spans="3:12" s="16" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C70" s="16" t="str">
+        <f>プラクティス一覧!B19</f>
+        <v>課題が顕在化しているところからテスト自動化していく</v>
+      </c>
+      <c r="F70" s="16" t="str">
+        <f>プラクティス一覧!B20</f>
+        <v>自動テストに関する良いフィードバックをできる人がいる開発チームからはじめる</v>
+      </c>
+      <c r="I70" s="16" t="str">
+        <f>プラクティス一覧!B21</f>
+        <v>ソフトウェアのアーキテクチャ変更による自動テストへのモチベーション向上を利用する</v>
+      </c>
+      <c r="L70" s="16" t="str">
+        <f>プラクティス一覧!B22</f>
+        <v>自動テストは開発チーム全員で運用するように話をする</v>
+      </c>
+    </row>
+    <row r="71" spans="3:12" ht="65" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" spans="3:12" ht="19" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="3:12" s="16" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="16" t="str">
+        <f>プラクティス一覧!B23</f>
+        <v>QA組織のメンバが簡単な自動テストを作れて、理解できるようになる</v>
+      </c>
+      <c r="F80" s="16" t="str">
+        <f>プラクティス一覧!B24</f>
+        <v>社内に自動テストサポート組織を作る</v>
+      </c>
+      <c r="I80" s="16" t="str">
+        <f>プラクティス一覧!B25</f>
+        <v>社内に自動テストのトレーニングの場を作る</v>
+      </c>
+      <c r="L80" s="16" t="str">
+        <f>プラクティス一覧!B26</f>
+        <v>第三者検証企業の協力を得て、テスト自動化を加速させる</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" s="16" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C99" s="16" t="str">
+        <f>プラクティス一覧!B27</f>
+        <v>自動テストに関する良いフィードバックをできる人を開発チームにおく</v>
+      </c>
+      <c r="F99" s="16" t="str">
+        <f>プラクティス一覧!B28</f>
+        <v>テスト自動化の経験者の採用</v>
+      </c>
+      <c r="I99" s="16" t="str">
+        <f>プラクティス一覧!B29</f>
+        <v>自動テストをセルフスタートできる教育コンテンツ</v>
+      </c>
+      <c r="L99" s="16" t="str">
+        <f>プラクティス一覧!B30</f>
+        <v>テスト自動化のモチベーション高めるコンテスト</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" ht="65" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" spans="3:12" ht="19" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" spans="3:12" s="16" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C109" s="16" t="str">
+        <f>プラクティス一覧!B31</f>
+        <v>テスト対象プロダクトの自動テストのサンプルコード</v>
+      </c>
+      <c r="F109" s="16" t="str">
+        <f>プラクティス一覧!B32</f>
+        <v>ブラウザを利用するテストにおいて、ページオブジェクトパターンを利用する</v>
+      </c>
+      <c r="I109" s="16" t="str">
+        <f>プラクティス一覧!B33</f>
+        <v>自動テストのダッシュボード</v>
+      </c>
+      <c r="L109" s="16" t="str">
+        <f>プラクティス一覧!B34</f>
+        <v>自動テストの実行結果の日々の変化を可視化する</v>
+      </c>
+    </row>
+    <row r="128" spans="3:12" s="16" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C128" s="16" t="str">
+        <f>プラクティス一覧!B35</f>
+        <v>自動テストを頻繁におこなえるようにする</v>
+      </c>
+      <c r="F128" s="16" t="str">
+        <f>プラクティス一覧!B36</f>
+        <v>自動テストを自動実行するプロセスにする</v>
+      </c>
+      <c r="I128" s="16" t="str">
+        <f>プラクティス一覧!B37</f>
+        <v>テスト対象・テストデータを独立にし、自動テストを並列で実施できるようにする</v>
+      </c>
+      <c r="L128" s="16" t="str">
+        <f>プラクティス一覧!B38</f>
+        <v>クラウドサービスで自動テスト環境を構築し、利用状況に合わせたリソース増減をおこなう</v>
+      </c>
+    </row>
+    <row r="129" spans="3:12" ht="65" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" spans="3:12" ht="19" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" spans="3:12" s="16" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C138" s="16" t="str">
+        <f>プラクティス一覧!B39</f>
+        <v>自動テストが失敗する原因を特定する情報を出力する</v>
+      </c>
+      <c r="F138" s="16" t="str">
+        <f>プラクティス一覧!B40</f>
+        <v>自動テストがパフォーマンスを発揮するように維持・改善し続ける</v>
+      </c>
+      <c r="I138" s="16" t="str">
+        <f>プラクティス一覧!B41</f>
+        <v>テストシナリオ群のモデル図を作り、どのようなテストを自動化するか・自動化したテストがどのようなものか認識を合わせる</v>
+      </c>
+      <c r="L138" s="16">
+        <f>プラクティス一覧!B42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="3:12" s="16" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C157" s="16" t="str">
+        <f>課題_and_対応プラクティス!B3</f>
+        <v>ソフトウェア、システムの環境が開発チームによって大きく違う</v>
+      </c>
+      <c r="F157" s="16" t="str">
+        <f>課題_and_対応プラクティス!B4</f>
+        <v>システムの更新、環境の更新にリソースを割かれテスト自動化が進まない</v>
+      </c>
+      <c r="I157" s="16" t="str">
+        <f>課題_and_対応プラクティス!B5</f>
+        <v>品質の課題に対してテスト自動化の何から初めて良いのか分からない</v>
+      </c>
+      <c r="L157" s="16" t="str">
+        <f>課題_and_対応プラクティス!B6</f>
+        <v>テストのカバレッジが分からない</v>
+      </c>
+    </row>
+    <row r="172" spans="3:12" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" spans="3:12" s="16" customFormat="1" ht="68" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C173" s="16" t="str">
+        <f>課題_and_対応プラクティス!B7</f>
+        <v>健康診断を1年以上受けていない自動テスト</v>
+      </c>
+      <c r="F173" s="16" t="str">
+        <f>課題_and_対応プラクティス!B8</f>
+        <v>プロジェクトへのテスト自動化導入が上手く進まない</v>
+      </c>
+      <c r="I173" s="16" t="str">
+        <f>課題_and_対応プラクティス!B9</f>
+        <v>ランダムに自動テストシナリオが失敗する</v>
+      </c>
+      <c r="L173" s="16" t="str">
+        <f>課題_and_対応プラクティス!B10</f>
+        <v>テスト自動化の費用と効果が分からない</v>
+      </c>
+    </row>
+    <row r="190" spans="3:12" s="16" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C190" s="16" t="str">
+        <f>課題_and_対応プラクティス!B11</f>
+        <v>どのレイヤで自動テストを実装すると効果的かが分からない</v>
+      </c>
+      <c r="F190" s="16" t="str">
+        <f>課題_and_対応プラクティス!B12</f>
+        <v>自動テストの実行時間が長い</v>
+      </c>
+      <c r="I190" s="16" t="str">
+        <f>課題_and_対応プラクティス!B13</f>
+        <v>自動テストがflakyになる</v>
+      </c>
+      <c r="L190" s="16" t="str">
+        <f>課題_and_対応プラクティス!B14</f>
+        <v>自動テストを書ける人が少なく自動テストが増えにくい</v>
+      </c>
+    </row>
+    <row r="205" spans="3:12" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" spans="3:12" s="16" customFormat="1" ht="68" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C206" s="16" t="str">
+        <f>課題_and_対応プラクティス!B15</f>
+        <v>連続して実行できないテストケースの自動化が難しい</v>
+      </c>
+      <c r="F206" s="16" t="str">
+        <f>課題_and_対応プラクティス!B16</f>
+        <v>並列で実行できない自動テスト</v>
+      </c>
+      <c r="I206" s="16" t="str">
+        <f>課題_and_対応プラクティス!B17</f>
+        <v>どのような自動テストシナリオが効果的か分かりづらい</v>
+      </c>
+      <c r="L206" s="16" t="str">
+        <f>課題_and_対応プラクティス!B18</f>
+        <v>自動テストシナリオの保守コストが高い（組織）</v>
+      </c>
+    </row>
+    <row r="223" spans="3:12" s="16" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C223" s="16" t="str">
+        <f>課題_and_対応プラクティス!B19</f>
+        <v>自動テストシナリオの保守コストが高い（技術）</v>
+      </c>
+      <c r="F223" s="16" t="str">
+        <f>課題_and_対応プラクティス!B20</f>
+        <v>いつの間にか使われなくなっていた自動テスト</v>
+      </c>
+      <c r="I223" s="16" t="str">
+        <f>課題_and_対応プラクティス!B21</f>
+        <v>自動テストシナリオの実装で手戻りが多い</v>
+      </c>
+      <c r="L223" s="16">
+        <f>課題_and_対応プラクティス!B22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="3:12" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" spans="3:12" s="16" customFormat="1" ht="68" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C239" s="16">
+        <f>課題_and_対応プラクティス!B23</f>
+        <v>0</v>
+      </c>
+      <c r="F239" s="16">
+        <f>課題_and_対応プラクティス!B24</f>
+        <v>0</v>
+      </c>
+      <c r="I239" s="16">
+        <f>課題_and_対応プラクティス!B25</f>
+        <v>0</v>
+      </c>
+      <c r="L239" s="16">
+        <f>課題_and_対応プラクティス!B26</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>